--- a/share/data/design/基因.xlsx
+++ b/share/data/design/基因.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>基因</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,13 @@
   <si>
     <t>速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_zhanshenchongzhuang</t>
   </si>
 </sst>
 </file>
@@ -449,21 +456,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9" style="3"/>
     <col min="8" max="8" width="17.375" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="9" style="2"/>
+    <col min="9" max="9" width="26.375" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,12 +497,15 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>200001</v>
+        <v>1001</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -518,12 +529,15 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>200002</v>
+        <v>1002</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -547,12 +561,15 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>200003</v>
+        <v>1003</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -576,12 +593,15 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>200004</v>
+        <v>1004</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -605,12 +625,15 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>200005</v>
+        <v>1005</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -634,13 +657,16 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="G10" s="1"/>
     </row>
   </sheetData>

--- a/share/data/design/基因.xlsx
+++ b/share/data/design/基因.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -514,7 +514,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -578,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -610,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -642,7 +642,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="E6">
         <v>1</v>

--- a/share/data/design/基因.xlsx
+++ b/share/data/design/基因.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>基因</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,26 @@
   </si>
   <si>
     <t>skill_zhanshenchongzhuang</t>
+  </si>
+  <si>
+    <t>变身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡后消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -459,14 +479,15 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="8" max="8" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
     <col min="9" max="9" width="26.375" customWidth="1"/>
+    <col min="11" max="11" width="12.25" customWidth="1"/>
     <col min="12" max="12" width="10.5" customWidth="1"/>
     <col min="13" max="13" width="9" style="2"/>
   </cols>
@@ -488,19 +509,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -534,37 +558,34 @@
       <c r="J2" t="s">
         <v>7</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>30000</v>
+        <v>-1</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -598,6 +619,9 @@
       <c r="J4" t="s">
         <v>7</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
@@ -630,6 +654,9 @@
       <c r="J5" t="s">
         <v>7</v>
       </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
@@ -661,6 +688,9 @@
       </c>
       <c r="J6" t="s">
         <v>7</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">

--- a/share/data/design/基因.xlsx
+++ b/share/data/design/基因.xlsx
@@ -479,7 +479,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -567,7 +567,7 @@
         <v>1002</v>
       </c>
       <c r="B3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>

--- a/share/data/design/基因.xlsx
+++ b/share/data/design/基因.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>基因</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>死亡后消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法盾，将血量提升至原来的两倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +487,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -487,6 +495,7 @@
     <col min="2" max="2" width="9" style="3"/>
     <col min="8" max="8" width="8.25" customWidth="1"/>
     <col min="9" max="9" width="26.375" customWidth="1"/>
+    <col min="10" max="10" width="28.875" customWidth="1"/>
     <col min="11" max="11" width="12.25" customWidth="1"/>
     <col min="12" max="12" width="10.5" customWidth="1"/>
     <col min="13" max="13" width="9" style="2"/>
@@ -593,31 +602,22 @@
         <v>1003</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>30000</v>
+        <v>-1</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K4">
         <v>1</v>

--- a/share/data/design/基因.xlsx
+++ b/share/data/design/基因.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>基因</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,14 @@
   </si>
   <si>
     <t>魔法盾，将血量提升至原来的两倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复血量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +495,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G5" sqref="G5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -628,34 +636,25 @@
         <v>1004</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>30000</v>
+        <v>-1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">

--- a/share/data/design/基因.xlsx
+++ b/share/data/design/基因.xlsx
@@ -495,7 +495,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/share/data/design/基因.xlsx
+++ b/share/data/design/基因.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>基因</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,14 @@
   </si>
   <si>
     <t>回复血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷击麻痹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷击麻痹，每一秒受到7点伤害，持续3秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +503,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -503,7 +511,7 @@
     <col min="2" max="2" width="9" style="3"/>
     <col min="8" max="8" width="8.25" customWidth="1"/>
     <col min="9" max="9" width="26.375" customWidth="1"/>
-    <col min="10" max="10" width="28.875" customWidth="1"/>
+    <col min="10" max="10" width="34.875" customWidth="1"/>
     <col min="11" max="11" width="12.25" customWidth="1"/>
     <col min="12" max="12" width="10.5" customWidth="1"/>
     <col min="13" max="13" width="9" style="2"/>
@@ -662,31 +670,22 @@
         <v>1005</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
       <c r="J6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>1</v>

--- a/share/data/design/基因.xlsx
+++ b/share/data/design/基因.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="基因类型" sheetId="12" r:id="rId1"/>
+    <sheet name="可选择基因" sheetId="12" r:id="rId1"/>
+    <sheet name="不可选择基因" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="195">
   <si>
     <t>基因</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,14 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,6 +98,572 @@
   <si>
     <t>雷击麻痹，每一秒受到7点伤害，持续3秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度提升20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度提升30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度提升40%</t>
+  </si>
+  <si>
+    <t>速度提升50%</t>
+  </si>
+  <si>
+    <t>速度提升60%</t>
+  </si>
+  <si>
+    <t>速度提升70%</t>
+  </si>
+  <si>
+    <t>速度提升80%</t>
+  </si>
+  <si>
+    <t>速度提升90%</t>
+  </si>
+  <si>
+    <t>速度提升100%</t>
+  </si>
+  <si>
+    <t>猎人之力1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎人之力2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎人之力3级</t>
+  </si>
+  <si>
+    <t>猎人之力4级</t>
+  </si>
+  <si>
+    <t>猎人之力5级</t>
+  </si>
+  <si>
+    <t>猎人之力6级</t>
+  </si>
+  <si>
+    <t>猎人之力7级</t>
+  </si>
+  <si>
+    <t>猎人之力8级</t>
+  </si>
+  <si>
+    <t>猎人之力9级</t>
+  </si>
+  <si>
+    <t>风火轮2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风火轮3级</t>
+  </si>
+  <si>
+    <t>风火轮4级</t>
+  </si>
+  <si>
+    <t>风火轮5级</t>
+  </si>
+  <si>
+    <t>风火轮6级</t>
+  </si>
+  <si>
+    <t>风火轮7级</t>
+  </si>
+  <si>
+    <t>风火轮8级</t>
+  </si>
+  <si>
+    <t>风火轮9级</t>
+  </si>
+  <si>
+    <t>风火轮1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亢龙有悔1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加10%的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亢龙有悔2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亢龙有悔3级</t>
+  </si>
+  <si>
+    <t>亢龙有悔4级</t>
+  </si>
+  <si>
+    <t>亢龙有悔5级</t>
+  </si>
+  <si>
+    <t>亢龙有悔6级</t>
+  </si>
+  <si>
+    <t>亢龙有悔7级</t>
+  </si>
+  <si>
+    <t>亢龙有悔8级</t>
+  </si>
+  <si>
+    <t>亢龙有悔9级</t>
+  </si>
+  <si>
+    <t>附加15%的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加20%的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加25%的伤害</t>
+  </si>
+  <si>
+    <t>附加30%的伤害</t>
+  </si>
+  <si>
+    <t>附加35%的伤害</t>
+  </si>
+  <si>
+    <t>附加40%的伤害</t>
+  </si>
+  <si>
+    <t>附加45%的伤害</t>
+  </si>
+  <si>
+    <t>附加50%的伤害</t>
+  </si>
+  <si>
+    <t>仙桃1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙桃2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙桃3级</t>
+  </si>
+  <si>
+    <t>仙桃4级</t>
+  </si>
+  <si>
+    <t>仙桃5级</t>
+  </si>
+  <si>
+    <t>仙桃6级</t>
+  </si>
+  <si>
+    <t>仙桃7级</t>
+  </si>
+  <si>
+    <t>仙桃8级</t>
+  </si>
+  <si>
+    <t>仙桃9级</t>
+  </si>
+  <si>
+    <t>增加20%的血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加30%的血量</t>
+  </si>
+  <si>
+    <t>增加40%的血量</t>
+  </si>
+  <si>
+    <t>增加50%的血量</t>
+  </si>
+  <si>
+    <t>增加60%的血量</t>
+  </si>
+  <si>
+    <t>增加70%的血量</t>
+  </si>
+  <si>
+    <t>增加80%的血量</t>
+  </si>
+  <si>
+    <t>增加90%的血量</t>
+  </si>
+  <si>
+    <t>增加100%的血量</t>
+  </si>
+  <si>
+    <t>special_icons_0052</t>
+  </si>
+  <si>
+    <t>special_icons_0007</t>
+  </si>
+  <si>
+    <t>special_icons_0010</t>
+  </si>
+  <si>
+    <t>special_icons_0019</t>
+  </si>
+  <si>
+    <t>无影手1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无影手2级</t>
+  </si>
+  <si>
+    <t>无影手3级</t>
+  </si>
+  <si>
+    <t>无影手4级</t>
+  </si>
+  <si>
+    <t>无影手5级</t>
+  </si>
+  <si>
+    <t>无影手6级</t>
+  </si>
+  <si>
+    <t>无影手7级</t>
+  </si>
+  <si>
+    <t>无影手8级</t>
+  </si>
+  <si>
+    <t>无影手9级</t>
+  </si>
+  <si>
+    <t>增加吸收物品距离60%</t>
+  </si>
+  <si>
+    <t>增加吸收物品距离120%</t>
+  </si>
+  <si>
+    <t>增加吸收物品距离180%</t>
+  </si>
+  <si>
+    <t>special_icons_00521</t>
+  </si>
+  <si>
+    <t>增加吸收物品距离80%</t>
+  </si>
+  <si>
+    <t>增加吸收物品距离20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加吸收物品距离40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加吸收物品距离100%</t>
+  </si>
+  <si>
+    <t>增加吸收物品距离140%</t>
+  </si>
+  <si>
+    <t>增加吸收物品距离160%</t>
+  </si>
+  <si>
+    <t>攻击速度提升5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度提升10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度提升15%</t>
+  </si>
+  <si>
+    <t>攻击速度提升20%</t>
+  </si>
+  <si>
+    <t>攻击速度提升25%</t>
+  </si>
+  <si>
+    <t>攻击速度提升30%</t>
+  </si>
+  <si>
+    <t>攻击速度提升35%</t>
+  </si>
+  <si>
+    <t>攻击速度提升40%</t>
+  </si>
+  <si>
+    <t>攻击速度提升45%</t>
+  </si>
+  <si>
+    <t>每秒恢复0.1点生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒恢复0.2点生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒恢复0.3点生命</t>
+  </si>
+  <si>
+    <t>每秒恢复0.4点生命</t>
+  </si>
+  <si>
+    <t>每秒恢复0.5点生命</t>
+  </si>
+  <si>
+    <t>每秒恢复0.6点生命</t>
+  </si>
+  <si>
+    <t>每秒恢复0.7点生命</t>
+  </si>
+  <si>
+    <t>每秒恢复0.8点生命</t>
+  </si>
+  <si>
+    <t>每秒恢复0.9点生命</t>
+  </si>
+  <si>
+    <t>九花玉露丸1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九花玉露丸2级</t>
+  </si>
+  <si>
+    <t>九花玉露丸3级</t>
+  </si>
+  <si>
+    <t>九花玉露丸4级</t>
+  </si>
+  <si>
+    <t>九花玉露丸5级</t>
+  </si>
+  <si>
+    <t>九花玉露丸6级</t>
+  </si>
+  <si>
+    <t>九花玉露丸7级</t>
+  </si>
+  <si>
+    <t>九花玉露丸8级</t>
+  </si>
+  <si>
+    <t>九花玉露丸9级</t>
+  </si>
+  <si>
+    <t>g_special_icons_0052</t>
+  </si>
+  <si>
+    <t>攻击范围提升10像素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围提升20像素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围提升30像素</t>
+  </si>
+  <si>
+    <t>攻击范围提升40像素</t>
+  </si>
+  <si>
+    <t>攻击范围提升50像素</t>
+  </si>
+  <si>
+    <t>攻击范围提升60像素</t>
+  </si>
+  <si>
+    <t>攻击范围提升70像素</t>
+  </si>
+  <si>
+    <t>攻击范围提升80像素</t>
+  </si>
+  <si>
+    <t>攻击范围提升90像素</t>
+  </si>
+  <si>
+    <t>upgrades_icons_0017</t>
+  </si>
+  <si>
+    <t>千里眼1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千里眼2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千里眼3级</t>
+  </si>
+  <si>
+    <t>千里眼4级</t>
+  </si>
+  <si>
+    <t>千里眼5级</t>
+  </si>
+  <si>
+    <t>千里眼6级</t>
+  </si>
+  <si>
+    <t>千里眼7级</t>
+  </si>
+  <si>
+    <t>千里眼8级</t>
+  </si>
+  <si>
+    <t>千里眼9级</t>
+  </si>
+  <si>
+    <t>经验提升7%</t>
+  </si>
+  <si>
+    <t>经验提升1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提升2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提升3%</t>
+  </si>
+  <si>
+    <t>经验提升4%</t>
+  </si>
+  <si>
+    <t>经验提升5%</t>
+  </si>
+  <si>
+    <t>经验提升6%</t>
+  </si>
+  <si>
+    <t>经验提升8%</t>
+  </si>
+  <si>
+    <t>经验提升9%</t>
+  </si>
+  <si>
+    <t>九阳神功1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九阳神功2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九阳神功3级</t>
+  </si>
+  <si>
+    <t>九阳神功4级</t>
+  </si>
+  <si>
+    <t>九阳神功5级</t>
+  </si>
+  <si>
+    <t>九阳神功6级</t>
+  </si>
+  <si>
+    <t>九阳神功7级</t>
+  </si>
+  <si>
+    <t>九阳神功8级</t>
+  </si>
+  <si>
+    <t>九阳神功9级</t>
+  </si>
+  <si>
+    <t>upgrades_icons_0013</t>
+  </si>
+  <si>
+    <t>护盾减防1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾减防2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾减防3</t>
+  </si>
+  <si>
+    <t>护盾减防4</t>
+  </si>
+  <si>
+    <t>护盾减防5</t>
+  </si>
+  <si>
+    <t>护盾减防6</t>
+  </si>
+  <si>
+    <t>护盾减防7</t>
+  </si>
+  <si>
+    <t>护盾减防8</t>
+  </si>
+  <si>
+    <t>护盾减防9</t>
+  </si>
+  <si>
+    <t>降龙十八掌1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降龙十八掌2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降龙十八掌3级</t>
+  </si>
+  <si>
+    <t>降龙十八掌4级</t>
+  </si>
+  <si>
+    <t>降龙十八掌5级</t>
+  </si>
+  <si>
+    <t>降龙十八掌6级</t>
+  </si>
+  <si>
+    <t>降龙十八掌7级</t>
+  </si>
+  <si>
+    <t>降龙十八掌8级</t>
+  </si>
+  <si>
+    <t>降龙十八掌9级</t>
+  </si>
+  <si>
+    <t>upgrades_icons_0024</t>
+  </si>
+  <si>
+    <t>飞弹数量加1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞弹数量加2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧波1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧波2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_icons_0033</t>
   </si>
 </sst>
 </file>
@@ -150,11 +709,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -500,28 +1056,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9" style="3"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="6.75" customWidth="1"/>
     <col min="8" max="8" width="8.25" customWidth="1"/>
-    <col min="9" max="9" width="26.375" customWidth="1"/>
-    <col min="10" max="10" width="34.875" customWidth="1"/>
+    <col min="9" max="9" width="33.5" customWidth="1"/>
+    <col min="10" max="10" width="22.625" customWidth="1"/>
     <col min="11" max="11" width="12.25" customWidth="1"/>
     <col min="12" max="12" width="10.5" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2"/>
+    <col min="13" max="13" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -534,91 +1092,2326 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
       </c>
       <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>10001</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>10002</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>10003</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>10004</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>10005</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>10006</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>10007</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>10008</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>90</v>
+      </c>
+      <c r="I9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>10009</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="I10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10101</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10102</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>10103</v>
+      </c>
+      <c r="B13" s="2">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>10104</v>
+      </c>
+      <c r="B14" s="2">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>10105</v>
+      </c>
+      <c r="B15" s="2">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>10106</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>10107</v>
+      </c>
+      <c r="B17" s="2">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>10108</v>
+      </c>
+      <c r="B18" s="2">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>10109</v>
+      </c>
+      <c r="B19" s="2">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>10201</v>
+      </c>
+      <c r="B20" s="2">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>10202</v>
+      </c>
+      <c r="B21" s="2">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>10203</v>
+      </c>
+      <c r="B22" s="2">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>10204</v>
+      </c>
+      <c r="B23" s="2">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>10205</v>
+      </c>
+      <c r="B24" s="2">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>30</v>
+      </c>
+      <c r="I24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>10206</v>
+      </c>
+      <c r="B25" s="2">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>10207</v>
+      </c>
+      <c r="B26" s="2">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26">
+        <v>-1</v>
+      </c>
+      <c r="E26">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>10208</v>
+      </c>
+      <c r="B27" s="2">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+      <c r="E27">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s">
+        <v>85</v>
+      </c>
+      <c r="J27" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>10209</v>
+      </c>
+      <c r="B28" s="2">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="I28" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>10301</v>
+      </c>
+      <c r="B29" s="2">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>10302</v>
+      </c>
+      <c r="B30" s="2">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30">
+        <v>-1</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="I30" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" t="s">
+        <v>74</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>10303</v>
+      </c>
+      <c r="B31" s="2">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31">
+        <v>-1</v>
+      </c>
+      <c r="E31">
+        <v>40</v>
+      </c>
+      <c r="I31" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" t="s">
+        <v>75</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>10304</v>
+      </c>
+      <c r="B32" s="2">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32">
+        <v>-1</v>
+      </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
+      <c r="I32" t="s">
+        <v>83</v>
+      </c>
+      <c r="J32" t="s">
+        <v>76</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>10305</v>
+      </c>
+      <c r="B33" s="2">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33">
+        <v>-1</v>
+      </c>
+      <c r="E33">
+        <v>60</v>
+      </c>
+      <c r="I33" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" t="s">
+        <v>77</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>10306</v>
+      </c>
+      <c r="B34" s="2">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34">
+        <v>-1</v>
+      </c>
+      <c r="E34">
+        <v>70</v>
+      </c>
+      <c r="I34" t="s">
+        <v>83</v>
+      </c>
+      <c r="J34" t="s">
+        <v>78</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>10307</v>
+      </c>
+      <c r="B35" s="2">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35">
+        <v>-1</v>
+      </c>
+      <c r="E35">
+        <v>80</v>
+      </c>
+      <c r="I35" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35" t="s">
+        <v>79</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>10308</v>
+      </c>
+      <c r="B36" s="2">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36">
+        <v>-1</v>
+      </c>
+      <c r="E36">
+        <v>90</v>
+      </c>
+      <c r="I36" t="s">
+        <v>83</v>
+      </c>
+      <c r="J36" t="s">
+        <v>80</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>10309</v>
+      </c>
+      <c r="B37" s="2">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37">
+        <v>-1</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="I37" t="s">
+        <v>83</v>
+      </c>
+      <c r="J37" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>10401</v>
+      </c>
+      <c r="B38" s="2">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38">
+        <v>-1</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s">
+        <v>98</v>
+      </c>
+      <c r="J38" t="s">
+        <v>100</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>10402</v>
+      </c>
+      <c r="B39" s="2">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39">
+        <v>-1</v>
+      </c>
+      <c r="E39">
+        <v>40</v>
+      </c>
+      <c r="I39" t="s">
+        <v>98</v>
+      </c>
+      <c r="J39" t="s">
+        <v>101</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>10403</v>
+      </c>
+      <c r="B40" s="2">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40">
+        <v>-1</v>
+      </c>
+      <c r="E40">
+        <v>60</v>
+      </c>
+      <c r="I40" t="s">
+        <v>98</v>
+      </c>
+      <c r="J40" t="s">
+        <v>95</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>10404</v>
+      </c>
+      <c r="B41" s="2">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41">
+        <v>-1</v>
+      </c>
+      <c r="E41">
+        <v>80</v>
+      </c>
+      <c r="I41" t="s">
+        <v>98</v>
+      </c>
+      <c r="J41" t="s">
+        <v>99</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>10405</v>
+      </c>
+      <c r="B42" s="2">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42">
+        <v>-1</v>
+      </c>
+      <c r="E42">
+        <v>100</v>
+      </c>
+      <c r="I42" t="s">
+        <v>98</v>
+      </c>
+      <c r="J42" t="s">
+        <v>102</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>10406</v>
+      </c>
+      <c r="B43" s="2">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43">
+        <v>-1</v>
+      </c>
+      <c r="E43">
+        <v>120</v>
+      </c>
+      <c r="I43" t="s">
+        <v>98</v>
+      </c>
+      <c r="J43" t="s">
+        <v>96</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>10407</v>
+      </c>
+      <c r="B44" s="2">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44">
+        <v>-1</v>
+      </c>
+      <c r="E44">
+        <v>140</v>
+      </c>
+      <c r="I44" t="s">
+        <v>98</v>
+      </c>
+      <c r="J44" t="s">
+        <v>103</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>10408</v>
+      </c>
+      <c r="B45" s="2">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45">
+        <v>-1</v>
+      </c>
+      <c r="E45">
+        <v>160</v>
+      </c>
+      <c r="I45" t="s">
+        <v>98</v>
+      </c>
+      <c r="J45" t="s">
+        <v>104</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>10409</v>
+      </c>
+      <c r="B46" s="2">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46">
+        <v>-1</v>
+      </c>
+      <c r="E46">
+        <v>180</v>
+      </c>
+      <c r="I46" t="s">
+        <v>98</v>
+      </c>
+      <c r="J46" t="s">
+        <v>97</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>10501</v>
+      </c>
+      <c r="B47" s="2">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47">
+        <v>-1</v>
+      </c>
+      <c r="E47">
+        <v>1000</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47" t="s">
+        <v>114</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>10502</v>
+      </c>
+      <c r="B48" s="2">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48">
+        <v>-1</v>
+      </c>
+      <c r="E48">
+        <v>1000</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>132</v>
+      </c>
+      <c r="J48" t="s">
+        <v>115</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>10503</v>
+      </c>
+      <c r="B49" s="2">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49">
+        <v>-1</v>
+      </c>
+      <c r="E49">
+        <v>1000</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="I49" t="s">
+        <v>132</v>
+      </c>
+      <c r="J49" t="s">
+        <v>116</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>10504</v>
+      </c>
+      <c r="B50" s="2">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50">
+        <v>-1</v>
+      </c>
+      <c r="E50">
+        <v>1000</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="I50" t="s">
+        <v>132</v>
+      </c>
+      <c r="J50" t="s">
+        <v>117</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>10505</v>
+      </c>
+      <c r="B51" s="2">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51">
+        <v>-1</v>
+      </c>
+      <c r="E51">
+        <v>1000</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="I51" t="s">
+        <v>132</v>
+      </c>
+      <c r="J51" t="s">
+        <v>118</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>10506</v>
+      </c>
+      <c r="B52" s="2">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52">
+        <v>-1</v>
+      </c>
+      <c r="E52">
+        <v>1000</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="I52" t="s">
+        <v>132</v>
+      </c>
+      <c r="J52" t="s">
+        <v>119</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>10507</v>
+      </c>
+      <c r="B53" s="2">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53">
+        <v>-1</v>
+      </c>
+      <c r="E53">
+        <v>1000</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="I53" t="s">
+        <v>132</v>
+      </c>
+      <c r="J53" t="s">
+        <v>120</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>10508</v>
+      </c>
+      <c r="B54" s="2">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54">
+        <v>-1</v>
+      </c>
+      <c r="E54">
+        <v>1000</v>
+      </c>
+      <c r="F54">
+        <v>8</v>
+      </c>
+      <c r="I54" t="s">
+        <v>132</v>
+      </c>
+      <c r="J54" t="s">
+        <v>121</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>10509</v>
+      </c>
+      <c r="B55" s="2">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55">
+        <v>-1</v>
+      </c>
+      <c r="E55">
+        <v>1000</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+      <c r="I55" t="s">
+        <v>132</v>
+      </c>
+      <c r="J55" t="s">
+        <v>122</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>10601</v>
+      </c>
+      <c r="B56" s="2">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56">
+        <v>-1</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="I56" t="s">
+        <v>142</v>
+      </c>
+      <c r="J56" t="s">
+        <v>133</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>10602</v>
+      </c>
+      <c r="B57" s="2">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57">
+        <v>-1</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
+      </c>
+      <c r="I57" t="s">
+        <v>142</v>
+      </c>
+      <c r="J57" t="s">
+        <v>134</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>10603</v>
+      </c>
+      <c r="B58" s="2">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58">
+        <v>-1</v>
+      </c>
+      <c r="E58">
+        <v>30</v>
+      </c>
+      <c r="I58" t="s">
+        <v>142</v>
+      </c>
+      <c r="J58" t="s">
+        <v>135</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>10604</v>
+      </c>
+      <c r="B59" s="2">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59">
+        <v>-1</v>
+      </c>
+      <c r="E59">
+        <v>40</v>
+      </c>
+      <c r="I59" t="s">
+        <v>142</v>
+      </c>
+      <c r="J59" t="s">
+        <v>136</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>10605</v>
+      </c>
+      <c r="B60" s="2">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60">
+        <v>-1</v>
+      </c>
+      <c r="E60">
+        <v>50</v>
+      </c>
+      <c r="I60" t="s">
+        <v>142</v>
+      </c>
+      <c r="J60" t="s">
+        <v>137</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>10606</v>
+      </c>
+      <c r="B61" s="2">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61">
+        <v>-1</v>
+      </c>
+      <c r="E61">
+        <v>60</v>
+      </c>
+      <c r="I61" t="s">
+        <v>142</v>
+      </c>
+      <c r="J61" t="s">
+        <v>138</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>10607</v>
+      </c>
+      <c r="B62" s="2">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62">
+        <v>-1</v>
+      </c>
+      <c r="E62">
+        <v>70</v>
+      </c>
+      <c r="I62" t="s">
+        <v>142</v>
+      </c>
+      <c r="J62" t="s">
+        <v>139</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>10608</v>
+      </c>
+      <c r="B63" s="2">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63">
+        <v>-1</v>
+      </c>
+      <c r="E63">
+        <v>80</v>
+      </c>
+      <c r="I63" t="s">
+        <v>142</v>
+      </c>
+      <c r="J63" t="s">
+        <v>140</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>10609</v>
+      </c>
+      <c r="B64" s="2">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64">
+        <v>-1</v>
+      </c>
+      <c r="E64">
+        <v>90</v>
+      </c>
+      <c r="I64" t="s">
+        <v>142</v>
+      </c>
+      <c r="J64" t="s">
+        <v>141</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>10701</v>
+      </c>
+      <c r="B65" s="2">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65">
+        <v>-1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>170</v>
+      </c>
+      <c r="J65" t="s">
+        <v>153</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>10702</v>
+      </c>
+      <c r="B66" s="2">
+        <v>13</v>
+      </c>
+      <c r="C66" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66">
+        <v>-1</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="I66" t="s">
+        <v>170</v>
+      </c>
+      <c r="J66" t="s">
+        <v>154</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>10703</v>
+      </c>
+      <c r="B67" s="2">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67">
+        <v>-1</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="I67" t="s">
+        <v>170</v>
+      </c>
+      <c r="J67" t="s">
+        <v>155</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>10704</v>
+      </c>
+      <c r="B68" s="2">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68">
+        <v>-1</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="I68" t="s">
+        <v>170</v>
+      </c>
+      <c r="J68" t="s">
+        <v>156</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>10705</v>
+      </c>
+      <c r="B69" s="2">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69">
+        <v>-1</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="I69" t="s">
+        <v>170</v>
+      </c>
+      <c r="J69" t="s">
+        <v>157</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>10706</v>
+      </c>
+      <c r="B70" s="2">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70">
+        <v>-1</v>
+      </c>
+      <c r="E70">
+        <v>6</v>
+      </c>
+      <c r="I70" t="s">
+        <v>170</v>
+      </c>
+      <c r="J70" t="s">
+        <v>158</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>10707</v>
+      </c>
+      <c r="B71" s="2">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71">
+        <v>-1</v>
+      </c>
+      <c r="E71">
+        <v>7</v>
+      </c>
+      <c r="I71" t="s">
+        <v>170</v>
+      </c>
+      <c r="J71" t="s">
+        <v>152</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>10708</v>
+      </c>
+      <c r="B72" s="2">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72">
+        <v>-1</v>
+      </c>
+      <c r="E72">
+        <v>8</v>
+      </c>
+      <c r="I72" t="s">
+        <v>170</v>
+      </c>
+      <c r="J72" t="s">
+        <v>159</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>10709</v>
+      </c>
+      <c r="B73" s="2">
+        <v>13</v>
+      </c>
+      <c r="C73" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73">
+        <v>-1</v>
+      </c>
+      <c r="E73">
+        <v>9</v>
+      </c>
+      <c r="I73" t="s">
+        <v>170</v>
+      </c>
+      <c r="J73" t="s">
+        <v>160</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>10801</v>
+      </c>
+      <c r="B74" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C74" t="s">
+        <v>180</v>
+      </c>
+      <c r="D74">
+        <v>-1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>189</v>
+      </c>
+      <c r="J74" t="s">
+        <v>171</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>10802</v>
+      </c>
+      <c r="B75" s="2">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75">
+        <v>-1</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="I75" t="s">
+        <v>189</v>
+      </c>
+      <c r="J75" t="s">
+        <v>172</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>10803</v>
+      </c>
+      <c r="B76" s="2">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>182</v>
+      </c>
+      <c r="D76">
+        <v>-1</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="I76" t="s">
+        <v>189</v>
+      </c>
+      <c r="J76" t="s">
+        <v>173</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>10804</v>
+      </c>
+      <c r="B77" s="2">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77">
+        <v>-1</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="I77" t="s">
+        <v>189</v>
+      </c>
+      <c r="J77" t="s">
+        <v>174</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>10805</v>
+      </c>
+      <c r="B78" s="2">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78">
+        <v>-1</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
+      <c r="I78" t="s">
+        <v>189</v>
+      </c>
+      <c r="J78" t="s">
+        <v>175</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>10806</v>
+      </c>
+      <c r="B79" s="2">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79">
+        <v>-1</v>
+      </c>
+      <c r="E79">
+        <v>6</v>
+      </c>
+      <c r="I79" t="s">
+        <v>189</v>
+      </c>
+      <c r="J79" t="s">
+        <v>176</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>10807</v>
+      </c>
+      <c r="B80" s="2">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>186</v>
+      </c>
+      <c r="D80">
+        <v>-1</v>
+      </c>
+      <c r="E80">
+        <v>7</v>
+      </c>
+      <c r="I80" t="s">
+        <v>189</v>
+      </c>
+      <c r="J80" t="s">
+        <v>177</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>10808</v>
+      </c>
+      <c r="B81" s="2">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>187</v>
+      </c>
+      <c r="D81">
+        <v>-1</v>
+      </c>
+      <c r="E81">
+        <v>8</v>
+      </c>
+      <c r="I81" t="s">
+        <v>189</v>
+      </c>
+      <c r="J81" t="s">
+        <v>178</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>10809</v>
+      </c>
+      <c r="B82" s="2">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
+        <v>188</v>
+      </c>
+      <c r="D82">
+        <v>-1</v>
+      </c>
+      <c r="E82">
+        <v>9</v>
+      </c>
+      <c r="I82" t="s">
+        <v>189</v>
+      </c>
+      <c r="J82" t="s">
+        <v>179</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>10901</v>
+      </c>
+      <c r="B83" s="2">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
+        <v>192</v>
+      </c>
+      <c r="D83">
+        <v>-1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>194</v>
+      </c>
+      <c r="J83" t="s">
+        <v>190</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>10902</v>
+      </c>
+      <c r="B84" s="2">
+        <v>15</v>
+      </c>
+      <c r="C84" t="s">
+        <v>193</v>
+      </c>
+      <c r="D84">
+        <v>-1</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="I84" t="s">
+        <v>194</v>
+      </c>
+      <c r="J84" t="s">
+        <v>191</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="9" max="9" width="26.875" customWidth="1"/>
+    <col min="10" max="10" width="36.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>1001</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
+        <v>2001</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>30000</v>
+        <v>-1</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>1002</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3</v>
+        <v>2002</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>-1</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>1003</v>
-      </c>
-      <c r="B4" s="3">
-        <v>4</v>
+        <v>2003</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -627,75 +3420,45 @@
         <v>-1</v>
       </c>
       <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
       </c>
       <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>1004</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5</v>
+        <v>2004</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>3000</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>1005</v>
-      </c>
-      <c r="B6" s="3">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>3000</v>
-      </c>
-      <c r="E6">
-        <v>500</v>
-      </c>
-      <c r="F6">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="G10" s="1"/>
+      <c r="M5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/share/data/design/基因.xlsx
+++ b/share/data/design/基因.xlsx
@@ -554,35 +554,6 @@
     <t>经验提升9%</t>
   </si>
   <si>
-    <t>九阳神功1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九阳神功2级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九阳神功3级</t>
-  </si>
-  <si>
-    <t>九阳神功4级</t>
-  </si>
-  <si>
-    <t>九阳神功5级</t>
-  </si>
-  <si>
-    <t>九阳神功6级</t>
-  </si>
-  <si>
-    <t>九阳神功7级</t>
-  </si>
-  <si>
-    <t>九阳神功8级</t>
-  </si>
-  <si>
-    <t>九阳神功9级</t>
-  </si>
-  <si>
     <t>upgrades_icons_0013</t>
   </si>
   <si>
@@ -664,6 +635,34 @@
   </si>
   <si>
     <t>special_icons_0033</t>
+  </si>
+  <si>
+    <t>吸心大法1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸心大法2级</t>
+  </si>
+  <si>
+    <t>吸心大法3级</t>
+  </si>
+  <si>
+    <t>吸心大法4级</t>
+  </si>
+  <si>
+    <t>吸心大法5级</t>
+  </si>
+  <si>
+    <t>吸心大法6级</t>
+  </si>
+  <si>
+    <t>吸心大法7级</t>
+  </si>
+  <si>
+    <t>吸心大法8级</t>
+  </si>
+  <si>
+    <t>吸心大法9级</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1058,7 @@
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="O60" sqref="O60"/>
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2783,7 +2782,7 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D65">
         <v>-1</v>
@@ -2792,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J65" t="s">
         <v>153</v>
@@ -2809,7 +2808,7 @@
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="D66">
         <v>-1</v>
@@ -2818,7 +2817,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J66" t="s">
         <v>154</v>
@@ -2835,7 +2834,7 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="D67">
         <v>-1</v>
@@ -2844,7 +2843,7 @@
         <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J67" t="s">
         <v>155</v>
@@ -2861,7 +2860,7 @@
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="D68">
         <v>-1</v>
@@ -2870,7 +2869,7 @@
         <v>4</v>
       </c>
       <c r="I68" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J68" t="s">
         <v>156</v>
@@ -2887,7 +2886,7 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D69">
         <v>-1</v>
@@ -2896,7 +2895,7 @@
         <v>5</v>
       </c>
       <c r="I69" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J69" t="s">
         <v>157</v>
@@ -2913,7 +2912,7 @@
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D70">
         <v>-1</v>
@@ -2922,7 +2921,7 @@
         <v>6</v>
       </c>
       <c r="I70" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J70" t="s">
         <v>158</v>
@@ -2939,7 +2938,7 @@
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="D71">
         <v>-1</v>
@@ -2948,7 +2947,7 @@
         <v>7</v>
       </c>
       <c r="I71" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J71" t="s">
         <v>152</v>
@@ -2965,7 +2964,7 @@
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="D72">
         <v>-1</v>
@@ -2974,7 +2973,7 @@
         <v>8</v>
       </c>
       <c r="I72" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J72" t="s">
         <v>159</v>
@@ -2991,7 +2990,7 @@
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="D73">
         <v>-1</v>
@@ -3000,7 +2999,7 @@
         <v>9</v>
       </c>
       <c r="I73" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J73" t="s">
         <v>160</v>
@@ -3017,7 +3016,7 @@
         <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D74">
         <v>-1</v>
@@ -3026,10 +3025,10 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="J74" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -3043,7 +3042,7 @@
         <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D75">
         <v>-1</v>
@@ -3052,10 +3051,10 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="J75" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -3069,7 +3068,7 @@
         <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D76">
         <v>-1</v>
@@ -3078,10 +3077,10 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="J76" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -3095,7 +3094,7 @@
         <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D77">
         <v>-1</v>
@@ -3104,10 +3103,10 @@
         <v>4</v>
       </c>
       <c r="I77" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="J77" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -3121,7 +3120,7 @@
         <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D78">
         <v>-1</v>
@@ -3130,10 +3129,10 @@
         <v>5</v>
       </c>
       <c r="I78" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="J78" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -3147,7 +3146,7 @@
         <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D79">
         <v>-1</v>
@@ -3156,10 +3155,10 @@
         <v>6</v>
       </c>
       <c r="I79" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="J79" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -3173,7 +3172,7 @@
         <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D80">
         <v>-1</v>
@@ -3182,10 +3181,10 @@
         <v>7</v>
       </c>
       <c r="I80" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="J80" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -3199,7 +3198,7 @@
         <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D81">
         <v>-1</v>
@@ -3208,10 +3207,10 @@
         <v>8</v>
       </c>
       <c r="I81" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="J81" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -3225,7 +3224,7 @@
         <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D82">
         <v>-1</v>
@@ -3234,10 +3233,10 @@
         <v>9</v>
       </c>
       <c r="I82" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="J82" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -3251,7 +3250,7 @@
         <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D83">
         <v>-1</v>
@@ -3260,10 +3259,10 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="J83" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -3277,7 +3276,7 @@
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D84">
         <v>-1</v>
@@ -3286,10 +3285,10 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="J84" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="K84">
         <v>0</v>

--- a/share/data/design/基因.xlsx
+++ b/share/data/design/基因.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="可选择基因" sheetId="12" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="197">
   <si>
     <t>基因</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,35 +525,6 @@
     <t>千里眼9级</t>
   </si>
   <si>
-    <t>经验提升7%</t>
-  </si>
-  <si>
-    <t>经验提升1%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验提升2%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验提升3%</t>
-  </si>
-  <si>
-    <t>经验提升4%</t>
-  </si>
-  <si>
-    <t>经验提升5%</t>
-  </si>
-  <si>
-    <t>经验提升6%</t>
-  </si>
-  <si>
-    <t>经验提升8%</t>
-  </si>
-  <si>
-    <t>经验提升9%</t>
-  </si>
-  <si>
     <t>upgrades_icons_0013</t>
   </si>
   <si>
@@ -663,6 +634,43 @@
   </si>
   <si>
     <t>吸心大法9级</t>
+  </si>
+  <si>
+    <t>经验提升10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提升20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验提升30%</t>
+  </si>
+  <si>
+    <t>经验提升40%</t>
+  </si>
+  <si>
+    <t>经验提升50%</t>
+  </si>
+  <si>
+    <t>经验提升60%</t>
+  </si>
+  <si>
+    <t>经验提升70%</t>
+  </si>
+  <si>
+    <t>经验提升80%</t>
+  </si>
+  <si>
+    <t>经验提升90%</t>
+  </si>
+  <si>
+    <t>冰冻基因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻基因，每一秒受到5点伤害，持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1057,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2782,19 +2790,19 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65">
+        <v>-1</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="I65" t="s">
+        <v>152</v>
+      </c>
+      <c r="J65" t="s">
         <v>186</v>
-      </c>
-      <c r="D65">
-        <v>-1</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="I65" t="s">
-        <v>161</v>
-      </c>
-      <c r="J65" t="s">
-        <v>153</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -2808,19 +2816,19 @@
         <v>13</v>
       </c>
       <c r="C66" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66">
+        <v>-1</v>
+      </c>
+      <c r="E66">
+        <v>20</v>
+      </c>
+      <c r="I66" t="s">
+        <v>152</v>
+      </c>
+      <c r="J66" t="s">
         <v>187</v>
-      </c>
-      <c r="D66">
-        <v>-1</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
-      </c>
-      <c r="I66" t="s">
-        <v>161</v>
-      </c>
-      <c r="J66" t="s">
-        <v>154</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -2834,19 +2842,19 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67">
+        <v>-1</v>
+      </c>
+      <c r="E67">
+        <v>30</v>
+      </c>
+      <c r="I67" t="s">
+        <v>152</v>
+      </c>
+      <c r="J67" t="s">
         <v>188</v>
-      </c>
-      <c r="D67">
-        <v>-1</v>
-      </c>
-      <c r="E67">
-        <v>3</v>
-      </c>
-      <c r="I67" t="s">
-        <v>161</v>
-      </c>
-      <c r="J67" t="s">
-        <v>155</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -2860,19 +2868,19 @@
         <v>13</v>
       </c>
       <c r="C68" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68">
+        <v>-1</v>
+      </c>
+      <c r="E68">
+        <v>40</v>
+      </c>
+      <c r="I68" t="s">
+        <v>152</v>
+      </c>
+      <c r="J68" t="s">
         <v>189</v>
-      </c>
-      <c r="D68">
-        <v>-1</v>
-      </c>
-      <c r="E68">
-        <v>4</v>
-      </c>
-      <c r="I68" t="s">
-        <v>161</v>
-      </c>
-      <c r="J68" t="s">
-        <v>156</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -2886,19 +2894,19 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69">
+        <v>-1</v>
+      </c>
+      <c r="E69">
+        <v>50</v>
+      </c>
+      <c r="I69" t="s">
+        <v>152</v>
+      </c>
+      <c r="J69" t="s">
         <v>190</v>
-      </c>
-      <c r="D69">
-        <v>-1</v>
-      </c>
-      <c r="E69">
-        <v>5</v>
-      </c>
-      <c r="I69" t="s">
-        <v>161</v>
-      </c>
-      <c r="J69" t="s">
-        <v>157</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -2912,19 +2920,19 @@
         <v>13</v>
       </c>
       <c r="C70" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70">
+        <v>-1</v>
+      </c>
+      <c r="E70">
+        <v>60</v>
+      </c>
+      <c r="I70" t="s">
+        <v>152</v>
+      </c>
+      <c r="J70" t="s">
         <v>191</v>
-      </c>
-      <c r="D70">
-        <v>-1</v>
-      </c>
-      <c r="E70">
-        <v>6</v>
-      </c>
-      <c r="I70" t="s">
-        <v>161</v>
-      </c>
-      <c r="J70" t="s">
-        <v>158</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -2938,19 +2946,19 @@
         <v>13</v>
       </c>
       <c r="C71" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71">
+        <v>-1</v>
+      </c>
+      <c r="E71">
+        <v>70</v>
+      </c>
+      <c r="I71" t="s">
+        <v>152</v>
+      </c>
+      <c r="J71" t="s">
         <v>192</v>
-      </c>
-      <c r="D71">
-        <v>-1</v>
-      </c>
-      <c r="E71">
-        <v>7</v>
-      </c>
-      <c r="I71" t="s">
-        <v>161</v>
-      </c>
-      <c r="J71" t="s">
-        <v>152</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -2964,19 +2972,19 @@
         <v>13</v>
       </c>
       <c r="C72" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72">
+        <v>-1</v>
+      </c>
+      <c r="E72">
+        <v>80</v>
+      </c>
+      <c r="I72" t="s">
+        <v>152</v>
+      </c>
+      <c r="J72" t="s">
         <v>193</v>
-      </c>
-      <c r="D72">
-        <v>-1</v>
-      </c>
-      <c r="E72">
-        <v>8</v>
-      </c>
-      <c r="I72" t="s">
-        <v>161</v>
-      </c>
-      <c r="J72" t="s">
-        <v>159</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -2990,19 +2998,19 @@
         <v>13</v>
       </c>
       <c r="C73" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73">
+        <v>-1</v>
+      </c>
+      <c r="E73">
+        <v>90</v>
+      </c>
+      <c r="I73" t="s">
+        <v>152</v>
+      </c>
+      <c r="J73" t="s">
         <v>194</v>
-      </c>
-      <c r="D73">
-        <v>-1</v>
-      </c>
-      <c r="E73">
-        <v>9</v>
-      </c>
-      <c r="I73" t="s">
-        <v>161</v>
-      </c>
-      <c r="J73" t="s">
-        <v>160</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -3016,7 +3024,7 @@
         <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D74">
         <v>-1</v>
@@ -3025,10 +3033,10 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="J74" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -3042,7 +3050,7 @@
         <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D75">
         <v>-1</v>
@@ -3051,10 +3059,10 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="J75" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -3068,7 +3076,7 @@
         <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D76">
         <v>-1</v>
@@ -3077,10 +3085,10 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="J76" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -3094,7 +3102,7 @@
         <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D77">
         <v>-1</v>
@@ -3103,10 +3111,10 @@
         <v>4</v>
       </c>
       <c r="I77" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="J77" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -3120,7 +3128,7 @@
         <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D78">
         <v>-1</v>
@@ -3129,10 +3137,10 @@
         <v>5</v>
       </c>
       <c r="I78" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="J78" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -3146,7 +3154,7 @@
         <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D79">
         <v>-1</v>
@@ -3155,10 +3163,10 @@
         <v>6</v>
       </c>
       <c r="I79" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="J79" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -3172,7 +3180,7 @@
         <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D80">
         <v>-1</v>
@@ -3181,10 +3189,10 @@
         <v>7</v>
       </c>
       <c r="I80" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="J80" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -3198,7 +3206,7 @@
         <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D81">
         <v>-1</v>
@@ -3207,10 +3215,10 @@
         <v>8</v>
       </c>
       <c r="I81" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="J81" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -3224,7 +3232,7 @@
         <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D82">
         <v>-1</v>
@@ -3233,10 +3241,10 @@
         <v>9</v>
       </c>
       <c r="I82" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="J82" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -3250,7 +3258,7 @@
         <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D83">
         <v>-1</v>
@@ -3259,10 +3267,10 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="J83" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -3276,7 +3284,7 @@
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D84">
         <v>-1</v>
@@ -3285,10 +3293,10 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="J84" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -3303,10 +3311,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3459,6 +3467,33 @@
       </c>
       <c r="M5" s="1"/>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="2">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6">
+        <v>3000</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>196</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/share/data/design/基因.xlsx
+++ b/share/data/design/基因.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="199">
   <si>
     <t>基因</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -670,6 +670,14 @@
   </si>
   <si>
     <t>冰冻基因，每一秒受到5点伤害，持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒基因，每一秒受到10点伤害，持续5秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3311,10 +3319,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3494,6 +3502,33 @@
       </c>
       <c r="M6" s="1"/>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="2">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7">
+        <v>5000</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/share/data/design/基因.xlsx
+++ b/share/data/design/基因.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="可选择基因" sheetId="12" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="207">
   <si>
     <t>基因</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -678,6 +678,38 @@
   </si>
   <si>
     <t>中毒基因，每一秒受到10点伤害，持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷击麻痹，每一秒受到15点伤害，持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷击麻痹，每一秒受到20点伤害，持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷击麻痹，每一秒受到25点伤害，持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷击麻痹，每一秒受到30点伤害，持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷击麻痹，每一秒受到35点伤害，持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷击麻痹，每一秒受到40点伤害，持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷击麻痹，每一秒受到45点伤害，持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷击麻痹，每一秒受到50点伤害，持续3秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1073,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="P71" sqref="P71"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3319,10 +3351,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3465,7 +3497,7 @@
         <v>500</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
@@ -3492,7 +3524,7 @@
         <v>1000</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" t="s">
         <v>196</v>
@@ -3528,6 +3560,222 @@
         <v>1</v>
       </c>
       <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>3000</v>
+      </c>
+      <c r="E8">
+        <v>500</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>199</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>3000</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>200</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>3000</v>
+      </c>
+      <c r="E10">
+        <v>500</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>3000</v>
+      </c>
+      <c r="E11">
+        <v>500</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
+        <v>202</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>3000</v>
+      </c>
+      <c r="E12">
+        <v>500</v>
+      </c>
+      <c r="F12">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>203</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>3000</v>
+      </c>
+      <c r="E13">
+        <v>500</v>
+      </c>
+      <c r="F13">
+        <v>40</v>
+      </c>
+      <c r="J13" t="s">
+        <v>204</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>3000</v>
+      </c>
+      <c r="E14">
+        <v>500</v>
+      </c>
+      <c r="F14">
+        <v>45</v>
+      </c>
+      <c r="J14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="2">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>3000</v>
+      </c>
+      <c r="E15">
+        <v>500</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>206</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/share/data/design/基因.xlsx
+++ b/share/data/design/基因.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="可选择基因" sheetId="12" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="208">
   <si>
     <t>基因</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,9 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skill_zhanshenchongzhuang</t>
-  </si>
-  <si>
     <t>变身</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -710,6 +707,14 @@
   </si>
   <si>
     <t>雷击麻痹，每一秒受到50点伤害，持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法盾，将血量提升至原来的4倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火系护盾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,7 +1110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
@@ -1139,13 +1144,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -1154,7 +1159,7 @@
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -1165,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>-1</v>
@@ -1174,10 +1179,10 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1191,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -1200,10 +1205,10 @@
         <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1217,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -1226,10 +1231,10 @@
         <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1243,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -1252,10 +1257,10 @@
         <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1269,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>-1</v>
@@ -1278,10 +1283,10 @@
         <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1295,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -1304,10 +1309,10 @@
         <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1321,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -1330,10 +1335,10 @@
         <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1347,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -1356,10 +1361,10 @@
         <v>90</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1373,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>-1</v>
@@ -1382,10 +1387,10 @@
         <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1399,7 +1404,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>-1</v>
@@ -1408,10 +1413,10 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1425,7 +1430,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -1434,10 +1439,10 @@
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1451,7 +1456,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -1460,10 +1465,10 @@
         <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1477,7 +1482,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>-1</v>
@@ -1486,10 +1491,10 @@
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1503,7 +1508,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>-1</v>
@@ -1512,10 +1517,10 @@
         <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1529,7 +1534,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>-1</v>
@@ -1538,10 +1543,10 @@
         <v>30</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1555,7 +1560,7 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>-1</v>
@@ -1564,10 +1569,10 @@
         <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1581,7 +1586,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18">
         <v>-1</v>
@@ -1590,10 +1595,10 @@
         <v>40</v>
       </c>
       <c r="I18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1607,7 +1612,7 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -1616,10 +1621,10 @@
         <v>45</v>
       </c>
       <c r="I19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1633,7 +1638,7 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20">
         <v>-1</v>
@@ -1642,10 +1647,10 @@
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1659,7 +1664,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21">
         <v>-1</v>
@@ -1668,10 +1673,10 @@
         <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1685,7 +1690,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22">
         <v>-1</v>
@@ -1694,10 +1699,10 @@
         <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1711,7 +1716,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23">
         <v>-1</v>
@@ -1720,10 +1725,10 @@
         <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1737,7 +1742,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24">
         <v>-1</v>
@@ -1746,10 +1751,10 @@
         <v>30</v>
       </c>
       <c r="I24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1763,7 +1768,7 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25">
         <v>-1</v>
@@ -1772,10 +1777,10 @@
         <v>35</v>
       </c>
       <c r="I25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1789,7 +1794,7 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26">
         <v>-1</v>
@@ -1798,10 +1803,10 @@
         <v>40</v>
       </c>
       <c r="I26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1815,7 +1820,7 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27">
         <v>-1</v>
@@ -1824,10 +1829,10 @@
         <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1841,7 +1846,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28">
         <v>-1</v>
@@ -1850,10 +1855,10 @@
         <v>50</v>
       </c>
       <c r="I28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1867,7 +1872,7 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29">
         <v>-1</v>
@@ -1876,10 +1881,10 @@
         <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1893,7 +1898,7 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30">
         <v>-1</v>
@@ -1902,10 +1907,10 @@
         <v>30</v>
       </c>
       <c r="I30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1919,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31">
         <v>-1</v>
@@ -1928,10 +1933,10 @@
         <v>40</v>
       </c>
       <c r="I31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1945,7 +1950,7 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32">
         <v>-1</v>
@@ -1954,10 +1959,10 @@
         <v>50</v>
       </c>
       <c r="I32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -1971,7 +1976,7 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33">
         <v>-1</v>
@@ -1980,10 +1985,10 @@
         <v>60</v>
       </c>
       <c r="I33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -1997,7 +2002,7 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34">
         <v>-1</v>
@@ -2006,10 +2011,10 @@
         <v>70</v>
       </c>
       <c r="I34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2023,7 +2028,7 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35">
         <v>-1</v>
@@ -2032,10 +2037,10 @@
         <v>80</v>
       </c>
       <c r="I35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2049,7 +2054,7 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36">
         <v>-1</v>
@@ -2058,10 +2063,10 @@
         <v>90</v>
       </c>
       <c r="I36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2075,7 +2080,7 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37">
         <v>-1</v>
@@ -2084,10 +2089,10 @@
         <v>100</v>
       </c>
       <c r="I37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2101,7 +2106,7 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38">
         <v>-1</v>
@@ -2110,10 +2115,10 @@
         <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2127,7 +2132,7 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D39">
         <v>-1</v>
@@ -2136,10 +2141,10 @@
         <v>40</v>
       </c>
       <c r="I39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2153,7 +2158,7 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D40">
         <v>-1</v>
@@ -2162,10 +2167,10 @@
         <v>60</v>
       </c>
       <c r="I40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2179,7 +2184,7 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41">
         <v>-1</v>
@@ -2188,10 +2193,10 @@
         <v>80</v>
       </c>
       <c r="I41" t="s">
+        <v>97</v>
+      </c>
+      <c r="J41" t="s">
         <v>98</v>
-      </c>
-      <c r="J41" t="s">
-        <v>99</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2205,7 +2210,7 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <v>-1</v>
@@ -2214,10 +2219,10 @@
         <v>100</v>
       </c>
       <c r="I42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2231,7 +2236,7 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>-1</v>
@@ -2240,10 +2245,10 @@
         <v>120</v>
       </c>
       <c r="I43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2257,7 +2262,7 @@
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <v>-1</v>
@@ -2266,10 +2271,10 @@
         <v>140</v>
       </c>
       <c r="I44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2283,7 +2288,7 @@
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <v>-1</v>
@@ -2292,10 +2297,10 @@
         <v>160</v>
       </c>
       <c r="I45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2309,7 +2314,7 @@
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D46">
         <v>-1</v>
@@ -2318,10 +2323,10 @@
         <v>180</v>
       </c>
       <c r="I46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -2335,7 +2340,7 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D47">
         <v>-1</v>
@@ -2347,10 +2352,10 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -2364,7 +2369,7 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D48">
         <v>-1</v>
@@ -2376,10 +2381,10 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -2393,7 +2398,7 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D49">
         <v>-1</v>
@@ -2405,10 +2410,10 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -2422,7 +2427,7 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D50">
         <v>-1</v>
@@ -2434,10 +2439,10 @@
         <v>4</v>
       </c>
       <c r="I50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -2451,7 +2456,7 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D51">
         <v>-1</v>
@@ -2463,10 +2468,10 @@
         <v>5</v>
       </c>
       <c r="I51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -2480,7 +2485,7 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D52">
         <v>-1</v>
@@ -2492,10 +2497,10 @@
         <v>6</v>
       </c>
       <c r="I52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -2509,7 +2514,7 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D53">
         <v>-1</v>
@@ -2521,10 +2526,10 @@
         <v>7</v>
       </c>
       <c r="I53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -2538,7 +2543,7 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D54">
         <v>-1</v>
@@ -2550,10 +2555,10 @@
         <v>8</v>
       </c>
       <c r="I54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -2567,7 +2572,7 @@
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D55">
         <v>-1</v>
@@ -2579,10 +2584,10 @@
         <v>9</v>
       </c>
       <c r="I55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -2596,7 +2601,7 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D56">
         <v>-1</v>
@@ -2605,10 +2610,10 @@
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -2622,7 +2627,7 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D57">
         <v>-1</v>
@@ -2631,10 +2636,10 @@
         <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -2648,7 +2653,7 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D58">
         <v>-1</v>
@@ -2657,10 +2662,10 @@
         <v>30</v>
       </c>
       <c r="I58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -2674,7 +2679,7 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D59">
         <v>-1</v>
@@ -2683,10 +2688,10 @@
         <v>40</v>
       </c>
       <c r="I59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -2700,7 +2705,7 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D60">
         <v>-1</v>
@@ -2709,10 +2714,10 @@
         <v>50</v>
       </c>
       <c r="I60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -2726,7 +2731,7 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D61">
         <v>-1</v>
@@ -2735,10 +2740,10 @@
         <v>60</v>
       </c>
       <c r="I61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -2752,7 +2757,7 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D62">
         <v>-1</v>
@@ -2761,10 +2766,10 @@
         <v>70</v>
       </c>
       <c r="I62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -2778,7 +2783,7 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D63">
         <v>-1</v>
@@ -2787,10 +2792,10 @@
         <v>80</v>
       </c>
       <c r="I63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -2804,7 +2809,7 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D64">
         <v>-1</v>
@@ -2813,10 +2818,10 @@
         <v>90</v>
       </c>
       <c r="I64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -2830,7 +2835,7 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D65">
         <v>-1</v>
@@ -2839,10 +2844,10 @@
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -2856,7 +2861,7 @@
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D66">
         <v>-1</v>
@@ -2865,10 +2870,10 @@
         <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -2882,7 +2887,7 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D67">
         <v>-1</v>
@@ -2891,10 +2896,10 @@
         <v>30</v>
       </c>
       <c r="I67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J67" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -2908,7 +2913,7 @@
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D68">
         <v>-1</v>
@@ -2917,10 +2922,10 @@
         <v>40</v>
       </c>
       <c r="I68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -2934,7 +2939,7 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D69">
         <v>-1</v>
@@ -2943,10 +2948,10 @@
         <v>50</v>
       </c>
       <c r="I69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -2960,7 +2965,7 @@
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D70">
         <v>-1</v>
@@ -2969,10 +2974,10 @@
         <v>60</v>
       </c>
       <c r="I70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -2986,7 +2991,7 @@
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D71">
         <v>-1</v>
@@ -2995,10 +3000,10 @@
         <v>70</v>
       </c>
       <c r="I71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -3012,7 +3017,7 @@
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D72">
         <v>-1</v>
@@ -3021,10 +3026,10 @@
         <v>80</v>
       </c>
       <c r="I72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J72" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -3038,7 +3043,7 @@
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D73">
         <v>-1</v>
@@ -3047,10 +3052,10 @@
         <v>90</v>
       </c>
       <c r="I73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J73" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -3064,7 +3069,7 @@
         <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D74">
         <v>-1</v>
@@ -3073,10 +3078,10 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -3090,7 +3095,7 @@
         <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D75">
         <v>-1</v>
@@ -3099,10 +3104,10 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J75" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -3116,7 +3121,7 @@
         <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D76">
         <v>-1</v>
@@ -3125,10 +3130,10 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J76" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -3142,7 +3147,7 @@
         <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D77">
         <v>-1</v>
@@ -3151,10 +3156,10 @@
         <v>4</v>
       </c>
       <c r="I77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -3168,7 +3173,7 @@
         <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D78">
         <v>-1</v>
@@ -3177,10 +3182,10 @@
         <v>5</v>
       </c>
       <c r="I78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -3194,7 +3199,7 @@
         <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D79">
         <v>-1</v>
@@ -3203,10 +3208,10 @@
         <v>6</v>
       </c>
       <c r="I79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -3220,7 +3225,7 @@
         <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D80">
         <v>-1</v>
@@ -3229,10 +3234,10 @@
         <v>7</v>
       </c>
       <c r="I80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -3246,7 +3251,7 @@
         <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D81">
         <v>-1</v>
@@ -3255,10 +3260,10 @@
         <v>8</v>
       </c>
       <c r="I81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -3272,7 +3277,7 @@
         <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D82">
         <v>-1</v>
@@ -3281,10 +3286,10 @@
         <v>9</v>
       </c>
       <c r="I82" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -3298,7 +3303,7 @@
         <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D83">
         <v>-1</v>
@@ -3307,10 +3312,10 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -3324,7 +3329,7 @@
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D84">
         <v>-1</v>
@@ -3333,10 +3338,10 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J84" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -3351,10 +3356,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3380,13 +3385,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -3395,7 +3400,7 @@
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1"/>
     </row>
@@ -3407,7 +3412,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>-1</v>
@@ -3415,11 +3420,8 @@
       <c r="E2">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -3434,7 +3436,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -3442,11 +3444,8 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -3461,7 +3460,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -3473,7 +3472,7 @@
         <v>1000</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -3488,7 +3487,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>3000</v>
@@ -3500,7 +3499,7 @@
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -3515,7 +3514,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D6">
         <v>3000</v>
@@ -3527,7 +3526,7 @@
         <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3542,7 +3541,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D7">
         <v>5000</v>
@@ -3554,7 +3553,7 @@
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -3569,7 +3568,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>3000</v>
@@ -3581,7 +3580,7 @@
         <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -3596,7 +3595,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>3000</v>
@@ -3608,7 +3607,7 @@
         <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -3623,7 +3622,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>3000</v>
@@ -3635,7 +3634,7 @@
         <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -3650,7 +3649,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>3000</v>
@@ -3662,7 +3661,7 @@
         <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -3677,7 +3676,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>3000</v>
@@ -3689,7 +3688,7 @@
         <v>35</v>
       </c>
       <c r="J12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -3704,7 +3703,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>3000</v>
@@ -3716,7 +3715,7 @@
         <v>40</v>
       </c>
       <c r="J13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -3731,7 +3730,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>3000</v>
@@ -3743,7 +3742,7 @@
         <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -3758,7 +3757,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>3000</v>
@@ -3770,12 +3769,36 @@
         <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="2">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>206</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
